--- a/ExcelFiles/s3_good_trials_GraspObject_Varied_Size.xlsx
+++ b/ExcelFiles/s3_good_trials_GraspObject_Varied_Size.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macthurston\Documents\GitHub\project_grasp_object_interaction\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EE7EE1-E704-4972-9F16-4ABD384DCEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9919FF4-4CA9-4894-BAAE-919DB99E98FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-3135" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -356,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -429,6 +429,29 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20240523</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ExcelFiles/s3_good_trials_GraspObject_Varied_Size.xlsx
+++ b/ExcelFiles/s3_good_trials_GraspObject_Varied_Size.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macthurston\Documents\GitHub\project_grasp_object_interaction\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9919FF4-4CA9-4894-BAAE-919DB99E98FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743CE720-CFED-4313-BE8B-71C5BBCA6B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-3135" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -38,6 +38,15 @@
   </si>
   <si>
     <t>18,26,27,28,32</t>
+  </si>
+  <si>
+    <t>6,31</t>
+  </si>
+  <si>
+    <t>9,10,11,16,17,18</t>
+  </si>
+  <si>
+    <t>due to naming convention, I split the two sessions done on 20240719 into two separate days, otherwise that session date would contain double the amount of data which seems bad (need to maintain consistent trials)</t>
   </si>
 </sst>
 </file>
@@ -356,20 +365,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
@@ -452,6 +461,164 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>20240621</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>20240718</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20240719</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>20240720</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>20240808</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>20240809</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
